--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharm_project_dir\AppAutoTest\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_repository\AppAutoTest\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82A472-6C9B-42FD-8B2A-5D30EECC93C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038EA339-A36A-45B9-811A-1450411231B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="测试用例集" sheetId="1" r:id="rId1"/>
     <sheet name="搜索词" sheetId="2" r:id="rId2"/>
     <sheet name="进入主页" sheetId="3" r:id="rId3"/>
     <sheet name="登录" sheetId="4" r:id="rId4"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1578,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22377D28-A825-4F5A-B84D-502F26305CA4}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
